--- a/output/NYDOH 2320_Processed_2024-11-14.xlsx
+++ b/output/NYDOH 2320_Processed_2024-11-14.xlsx
@@ -1237,8 +1237,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B2" s="21" t="n">
-        <v>45607</v>
+      <c r="B2" s="21" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
       </c>
       <c r="C2" s="22">
         <f>B2</f>
@@ -1329,12 +1331,12 @@
       </c>
       <c r="Y2" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z2" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA2" s="6" t="inlineStr">
@@ -1357,8 +1359,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B3" s="21" t="n">
-        <v>45622</v>
+      <c r="B3" s="21" t="inlineStr">
+        <is>
+          <t>11/26/2024</t>
+        </is>
       </c>
       <c r="C3" s="22">
         <f>B3</f>
@@ -1449,12 +1453,12 @@
       </c>
       <c r="Y3" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z3" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA3" s="6" t="inlineStr">
@@ -1477,8 +1481,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B4" s="21" t="n">
-        <v>45615</v>
+      <c r="B4" s="21" t="inlineStr">
+        <is>
+          <t>11/19/2024</t>
+        </is>
       </c>
       <c r="C4" s="22">
         <f>B4</f>
@@ -1569,12 +1575,12 @@
       </c>
       <c r="Y4" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z4" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA4" s="6" t="inlineStr">
@@ -1597,8 +1603,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B5" s="21" t="n">
-        <v>45629</v>
+      <c r="B5" s="21" t="inlineStr">
+        <is>
+          <t>12/3/2024</t>
+        </is>
       </c>
       <c r="C5" s="22">
         <f>B5</f>
@@ -1687,12 +1695,12 @@
       </c>
       <c r="Y5" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z5" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA5" s="6" t="inlineStr">
@@ -1715,8 +1723,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B6" s="21" t="n">
-        <v>45633</v>
+      <c r="B6" s="21" t="inlineStr">
+        <is>
+          <t>12/7/2024</t>
+        </is>
       </c>
       <c r="C6" s="22">
         <f>B6</f>
@@ -1805,12 +1815,12 @@
       </c>
       <c r="Y6" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z6" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA6" s="6" t="inlineStr">
@@ -1833,8 +1843,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B7" s="21" t="n">
-        <v>45635</v>
+      <c r="B7" s="21" t="inlineStr">
+        <is>
+          <t>12/9/2024</t>
+        </is>
       </c>
       <c r="C7" s="22">
         <f>B7</f>
@@ -1923,12 +1935,12 @@
       </c>
       <c r="Y7" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z7" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA7" s="6" t="inlineStr">
@@ -1951,8 +1963,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B8" s="21" t="n">
-        <v>45636</v>
+      <c r="B8" s="21" t="inlineStr">
+        <is>
+          <t>12/10/2024</t>
+        </is>
       </c>
       <c r="C8" s="22">
         <f>B8</f>
@@ -2041,12 +2055,12 @@
       </c>
       <c r="Y8" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z8" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA8" s="6" t="inlineStr">
@@ -2069,8 +2083,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B9" s="21" t="n">
-        <v>45631</v>
+      <c r="B9" s="21" t="inlineStr">
+        <is>
+          <t>12/5/2024</t>
+        </is>
       </c>
       <c r="C9" s="22">
         <f>B9</f>
@@ -2159,12 +2175,12 @@
       </c>
       <c r="Y9" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z9" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA9" s="6" t="inlineStr">
@@ -2187,8 +2203,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B10" s="21" t="n">
-        <v>45639</v>
+      <c r="B10" s="21" t="inlineStr">
+        <is>
+          <t>12/13/2024</t>
+        </is>
       </c>
       <c r="C10" s="22">
         <f>B10</f>
@@ -2277,12 +2295,12 @@
       </c>
       <c r="Y10" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z10" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA10" s="6" t="inlineStr">
@@ -2305,8 +2323,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B11" s="21" t="n">
-        <v>45614</v>
+      <c r="B11" s="21" t="inlineStr">
+        <is>
+          <t>11/18/2024</t>
+        </is>
       </c>
       <c r="C11" s="22">
         <f>B11</f>
@@ -2397,12 +2417,12 @@
       </c>
       <c r="Y11" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z11" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA11" s="6" t="inlineStr">
@@ -2425,8 +2445,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B12" s="21" t="n">
-        <v>45609</v>
+      <c r="B12" s="21" t="inlineStr">
+        <is>
+          <t>11/13/2024</t>
+        </is>
       </c>
       <c r="C12" s="22">
         <f>B12</f>
@@ -2517,12 +2539,12 @@
       </c>
       <c r="Y12" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z12" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA12" s="6" t="inlineStr">
@@ -2545,8 +2567,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B13" s="21" t="n">
-        <v>45611</v>
+      <c r="B13" s="21" t="inlineStr">
+        <is>
+          <t>11/15/2024</t>
+        </is>
       </c>
       <c r="C13" s="22">
         <f>B13</f>
@@ -2637,12 +2661,12 @@
       </c>
       <c r="Y13" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z13" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA13" s="6" t="inlineStr">
@@ -2665,8 +2689,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B14" s="21" t="n">
-        <v>45617</v>
+      <c r="B14" s="21" t="inlineStr">
+        <is>
+          <t>11/21/2024</t>
+        </is>
       </c>
       <c r="C14" s="22">
         <f>B14</f>
@@ -2757,12 +2783,12 @@
       </c>
       <c r="Y14" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z14" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA14" s="6" t="inlineStr">
@@ -2785,8 +2811,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B15" s="21" t="n">
-        <v>45608</v>
+      <c r="B15" s="21" t="inlineStr">
+        <is>
+          <t>11/12/2024</t>
+        </is>
       </c>
       <c r="C15" s="22">
         <f>B15</f>
@@ -2877,12 +2905,12 @@
       </c>
       <c r="Y15" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z15" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA15" s="6" t="inlineStr">
@@ -2905,8 +2933,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B16" s="21" t="n">
-        <v>45616</v>
+      <c r="B16" s="21" t="inlineStr">
+        <is>
+          <t>11/20/2024</t>
+        </is>
       </c>
       <c r="C16" s="22">
         <f>B16</f>
@@ -2997,12 +3027,12 @@
       </c>
       <c r="Y16" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z16" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA16" s="6" t="inlineStr">
@@ -3025,8 +3055,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B17" s="21" t="n">
-        <v>45625</v>
+      <c r="B17" s="21" t="inlineStr">
+        <is>
+          <t>11/29/2024</t>
+        </is>
       </c>
       <c r="C17" s="22">
         <f>B17</f>
@@ -3117,12 +3149,12 @@
       </c>
       <c r="Y17" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z17" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA17" s="6" t="inlineStr">
@@ -3145,8 +3177,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B18" s="21" t="n">
-        <v>45624</v>
+      <c r="B18" s="21" t="inlineStr">
+        <is>
+          <t>11/28/2024</t>
+        </is>
       </c>
       <c r="C18" s="22">
         <f>B18</f>
@@ -3237,12 +3271,12 @@
       </c>
       <c r="Y18" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z18" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA18" s="6" t="inlineStr">
@@ -3265,8 +3299,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B19" s="21" t="n">
-        <v>45621</v>
+      <c r="B19" s="21" t="inlineStr">
+        <is>
+          <t>11/25/2024</t>
+        </is>
       </c>
       <c r="C19" s="22">
         <f>B19</f>
@@ -3357,12 +3393,12 @@
       </c>
       <c r="Y19" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z19" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA19" s="6" t="inlineStr">
@@ -3385,8 +3421,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B20" s="21" t="n">
-        <v>45622</v>
+      <c r="B20" s="21" t="inlineStr">
+        <is>
+          <t>11/26/2024</t>
+        </is>
       </c>
       <c r="C20" s="22">
         <f>B20</f>
@@ -3477,12 +3515,12 @@
       </c>
       <c r="Y20" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z20" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA20" s="6" t="inlineStr">
@@ -3505,8 +3543,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B21" s="21" t="n">
-        <v>45631</v>
+      <c r="B21" s="21" t="inlineStr">
+        <is>
+          <t>12/5/2024</t>
+        </is>
       </c>
       <c r="C21" s="22">
         <f>B21</f>
@@ -3595,12 +3635,12 @@
       </c>
       <c r="Y21" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z21" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA21" s="6" t="inlineStr">
@@ -3623,8 +3663,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B22" s="21" t="n">
-        <v>45636</v>
+      <c r="B22" s="21" t="inlineStr">
+        <is>
+          <t>12/10/2024</t>
+        </is>
       </c>
       <c r="C22" s="22">
         <f>B22</f>
@@ -3713,12 +3755,12 @@
       </c>
       <c r="Y22" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z22" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA22" s="6" t="inlineStr">
@@ -3741,8 +3783,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B23" s="21" t="n">
-        <v>45638</v>
+      <c r="B23" s="21" t="inlineStr">
+        <is>
+          <t>12/12/2024</t>
+        </is>
       </c>
       <c r="C23" s="22">
         <f>B23</f>
@@ -3831,12 +3875,12 @@
       </c>
       <c r="Y23" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z23" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA23" s="6" t="inlineStr">
@@ -3859,8 +3903,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B24" s="21" t="n">
-        <v>45630</v>
+      <c r="B24" s="21" t="inlineStr">
+        <is>
+          <t>12/4/2024</t>
+        </is>
       </c>
       <c r="C24" s="22">
         <f>B24</f>
@@ -3949,12 +3995,12 @@
       </c>
       <c r="Y24" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z24" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA24" s="6" t="inlineStr">
@@ -3977,8 +4023,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B25" s="21" t="n">
-        <v>45629</v>
+      <c r="B25" s="21" t="inlineStr">
+        <is>
+          <t>12/3/2024</t>
+        </is>
       </c>
       <c r="C25" s="22">
         <f>B25</f>
@@ -4067,12 +4115,12 @@
       </c>
       <c r="Y25" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z25" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA25" s="6" t="inlineStr">
@@ -4095,8 +4143,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B26" s="21" t="n">
-        <v>45640</v>
+      <c r="B26" s="21" t="inlineStr">
+        <is>
+          <t>12/14/2024</t>
+        </is>
       </c>
       <c r="C26" s="22">
         <f>B26</f>
@@ -4185,12 +4235,12 @@
       </c>
       <c r="Y26" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z26" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA26" s="6" t="inlineStr">
@@ -4213,8 +4263,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B27" s="21" t="n">
-        <v>45617</v>
+      <c r="B27" s="21" t="inlineStr">
+        <is>
+          <t>11/21/2024</t>
+        </is>
       </c>
       <c r="C27" s="22">
         <f>B27</f>
@@ -4305,12 +4357,12 @@
       </c>
       <c r="Y27" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z27" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA27" s="6" t="inlineStr">
@@ -4333,8 +4385,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B28" s="21" t="n">
-        <v>45619</v>
+      <c r="B28" s="21" t="inlineStr">
+        <is>
+          <t>11/23/2024</t>
+        </is>
       </c>
       <c r="C28" s="22">
         <f>B28</f>
@@ -4425,12 +4479,12 @@
       </c>
       <c r="Y28" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z28" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA28" s="6" t="inlineStr">
@@ -4453,8 +4507,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B29" s="21" t="n">
-        <v>45608</v>
+      <c r="B29" s="21" t="inlineStr">
+        <is>
+          <t>11/12/2024</t>
+        </is>
       </c>
       <c r="C29" s="22">
         <f>B29</f>
@@ -4545,12 +4601,12 @@
       </c>
       <c r="Y29" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z29" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA29" s="6" t="inlineStr">
@@ -4573,8 +4629,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B30" s="21" t="n">
-        <v>45609</v>
+      <c r="B30" s="21" t="inlineStr">
+        <is>
+          <t>11/13/2024</t>
+        </is>
       </c>
       <c r="C30" s="22">
         <f>B30</f>
@@ -4665,12 +4723,12 @@
       </c>
       <c r="Y30" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z30" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA30" s="6" t="inlineStr">
@@ -4693,8 +4751,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B31" s="21" t="n">
-        <v>45613</v>
+      <c r="B31" s="21" t="inlineStr">
+        <is>
+          <t>11/17/2024</t>
+        </is>
       </c>
       <c r="C31" s="22">
         <f>B31</f>
@@ -4785,12 +4845,12 @@
       </c>
       <c r="Y31" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z31" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA31" s="6" t="inlineStr">
@@ -4813,8 +4873,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B32" s="21" t="n">
-        <v>45614</v>
+      <c r="B32" s="21" t="inlineStr">
+        <is>
+          <t>11/18/2024</t>
+        </is>
       </c>
       <c r="C32" s="22">
         <f>B32</f>
@@ -4905,12 +4967,12 @@
       </c>
       <c r="Y32" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z32" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA32" s="6" t="inlineStr">
@@ -4933,8 +4995,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B33" s="21" t="n">
-        <v>45607</v>
+      <c r="B33" s="21" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
       </c>
       <c r="C33" s="22">
         <f>B33</f>
@@ -5025,12 +5089,12 @@
       </c>
       <c r="Y33" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z33" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA33" s="6" t="inlineStr">
@@ -5053,8 +5117,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B34" s="21" t="n">
-        <v>45615</v>
+      <c r="B34" s="21" t="inlineStr">
+        <is>
+          <t>11/19/2024</t>
+        </is>
       </c>
       <c r="C34" s="22">
         <f>B34</f>
@@ -5145,12 +5211,12 @@
       </c>
       <c r="Y34" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z34" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA34" s="6" t="inlineStr">
@@ -5173,8 +5239,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B35" s="21" t="n">
-        <v>45612</v>
+      <c r="B35" s="21" t="inlineStr">
+        <is>
+          <t>11/16/2024</t>
+        </is>
       </c>
       <c r="C35" s="22">
         <f>B35</f>
@@ -5265,12 +5333,12 @@
       </c>
       <c r="Y35" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z35" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA35" s="6" t="inlineStr">
@@ -5293,8 +5361,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B36" s="21" t="n">
-        <v>45616</v>
+      <c r="B36" s="21" t="inlineStr">
+        <is>
+          <t>11/20/2024</t>
+        </is>
       </c>
       <c r="C36" s="22">
         <f>B36</f>
@@ -5385,12 +5455,12 @@
       </c>
       <c r="Y36" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z36" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA36" s="6" t="inlineStr">
@@ -5413,8 +5483,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B37" s="21" t="n">
-        <v>45621</v>
+      <c r="B37" s="21" t="inlineStr">
+        <is>
+          <t>11/25/2024</t>
+        </is>
       </c>
       <c r="C37" s="22">
         <f>B37</f>
@@ -5505,12 +5577,12 @@
       </c>
       <c r="Y37" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z37" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA37" s="6" t="inlineStr">
@@ -5533,8 +5605,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B38" s="21" t="n">
-        <v>45627</v>
+      <c r="B38" s="21" t="inlineStr">
+        <is>
+          <t>12/1/2024</t>
+        </is>
       </c>
       <c r="C38" s="22">
         <f>B38</f>
@@ -5623,12 +5697,12 @@
       </c>
       <c r="Y38" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z38" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA38" s="6" t="inlineStr">
@@ -5651,8 +5725,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B39" s="21" t="n">
-        <v>45624</v>
+      <c r="B39" s="21" t="inlineStr">
+        <is>
+          <t>11/28/2024</t>
+        </is>
       </c>
       <c r="C39" s="22">
         <f>B39</f>
@@ -5743,12 +5819,12 @@
       </c>
       <c r="Y39" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z39" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA39" s="6" t="inlineStr">
@@ -5771,8 +5847,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B40" s="21" t="n">
-        <v>45625</v>
+      <c r="B40" s="21" t="inlineStr">
+        <is>
+          <t>11/29/2024</t>
+        </is>
       </c>
       <c r="C40" s="22">
         <f>B40</f>
@@ -5863,12 +5941,12 @@
       </c>
       <c r="Y40" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z40" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA40" s="6" t="inlineStr">
@@ -5891,8 +5969,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B41" s="21" t="n">
-        <v>45632</v>
+      <c r="B41" s="21" t="inlineStr">
+        <is>
+          <t>12/6/2024</t>
+        </is>
       </c>
       <c r="C41" s="22">
         <f>B41</f>
@@ -5981,12 +6061,12 @@
       </c>
       <c r="Y41" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z41" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA41" s="6" t="inlineStr">
@@ -6009,8 +6089,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B42" s="21" t="n">
-        <v>45630</v>
+      <c r="B42" s="21" t="inlineStr">
+        <is>
+          <t>12/4/2024</t>
+        </is>
       </c>
       <c r="C42" s="22">
         <f>B42</f>
@@ -6099,12 +6181,12 @@
       </c>
       <c r="Y42" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z42" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA42" s="6" t="inlineStr">
@@ -6127,8 +6209,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B43" s="21" t="n">
-        <v>45629</v>
+      <c r="B43" s="21" t="inlineStr">
+        <is>
+          <t>12/3/2024</t>
+        </is>
       </c>
       <c r="C43" s="22">
         <f>B43</f>
@@ -6217,12 +6301,12 @@
       </c>
       <c r="Y43" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z43" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA43" s="6" t="inlineStr">
@@ -6245,8 +6329,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B44" s="21" t="n">
-        <v>45620</v>
+      <c r="B44" s="21" t="inlineStr">
+        <is>
+          <t>11/24/2024</t>
+        </is>
       </c>
       <c r="C44" s="22">
         <f>B44</f>
@@ -6337,12 +6423,12 @@
       </c>
       <c r="Y44" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z44" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA44" s="6" t="inlineStr">
@@ -6365,8 +6451,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B45" s="21" t="n">
-        <v>45610</v>
+      <c r="B45" s="21" t="inlineStr">
+        <is>
+          <t>11/14/2024</t>
+        </is>
       </c>
       <c r="C45" s="22">
         <f>B45</f>
@@ -6457,12 +6545,12 @@
       </c>
       <c r="Y45" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z45" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA45" s="6" t="inlineStr">
@@ -6485,8 +6573,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B46" s="21" t="n">
-        <v>45621</v>
+      <c r="B46" s="21" t="inlineStr">
+        <is>
+          <t>11/25/2024</t>
+        </is>
       </c>
       <c r="C46" s="22">
         <f>B46</f>
@@ -6577,12 +6667,12 @@
       </c>
       <c r="Y46" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z46" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA46" s="6" t="inlineStr">
@@ -6605,8 +6695,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B47" s="21" t="n">
-        <v>45622</v>
+      <c r="B47" s="21" t="inlineStr">
+        <is>
+          <t>11/26/2024</t>
+        </is>
       </c>
       <c r="C47" s="22">
         <f>B47</f>
@@ -6697,12 +6789,12 @@
       </c>
       <c r="Y47" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z47" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA47" s="6" t="inlineStr">
@@ -6725,8 +6817,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B48" s="21" t="n">
-        <v>45631</v>
+      <c r="B48" s="21" t="inlineStr">
+        <is>
+          <t>12/5/2024</t>
+        </is>
       </c>
       <c r="C48" s="22">
         <f>B48</f>
@@ -6815,12 +6909,12 @@
       </c>
       <c r="Y48" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z48" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA48" s="6" t="inlineStr">
@@ -6843,8 +6937,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B49" s="21" t="n">
-        <v>45630</v>
+      <c r="B49" s="21" t="inlineStr">
+        <is>
+          <t>12/4/2024</t>
+        </is>
       </c>
       <c r="C49" s="22">
         <f>B49</f>
@@ -6933,12 +7029,12 @@
       </c>
       <c r="Y49" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z49" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA49" s="6" t="inlineStr">
@@ -6961,8 +7057,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B50" s="21" t="n">
-        <v>45632</v>
+      <c r="B50" s="21" t="inlineStr">
+        <is>
+          <t>12/6/2024</t>
+        </is>
       </c>
       <c r="C50" s="22">
         <f>B50</f>
@@ -7051,12 +7149,12 @@
       </c>
       <c r="Y50" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z50" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA50" s="6" t="inlineStr">
@@ -7079,8 +7177,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B51" s="21" t="n">
-        <v>45609</v>
+      <c r="B51" s="21" t="inlineStr">
+        <is>
+          <t>11/13/2024</t>
+        </is>
       </c>
       <c r="C51" s="22">
         <f>B51</f>
@@ -7171,12 +7271,12 @@
       </c>
       <c r="Y51" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z51" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA51" s="6" t="inlineStr">
@@ -7199,8 +7299,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B52" s="21" t="n">
-        <v>45620</v>
+      <c r="B52" s="21" t="inlineStr">
+        <is>
+          <t>11/24/2024</t>
+        </is>
       </c>
       <c r="C52" s="22">
         <f>B52</f>
@@ -7291,12 +7393,12 @@
       </c>
       <c r="Y52" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z52" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA52" s="6" t="inlineStr">
@@ -7319,8 +7421,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B53" s="21" t="n">
-        <v>45613</v>
+      <c r="B53" s="21" t="inlineStr">
+        <is>
+          <t>11/17/2024</t>
+        </is>
       </c>
       <c r="C53" s="22">
         <f>B53</f>
@@ -7411,12 +7515,12 @@
       </c>
       <c r="Y53" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z53" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA53" s="6" t="inlineStr">
@@ -7439,8 +7543,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B54" s="21" t="n">
-        <v>45619</v>
+      <c r="B54" s="21" t="inlineStr">
+        <is>
+          <t>11/23/2024</t>
+        </is>
       </c>
       <c r="C54" s="22">
         <f>B54</f>
@@ -7531,12 +7637,12 @@
       </c>
       <c r="Y54" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z54" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA54" s="6" t="inlineStr">
@@ -7559,8 +7665,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B55" s="21" t="n">
-        <v>45624</v>
+      <c r="B55" s="21" t="inlineStr">
+        <is>
+          <t>11/28/2024</t>
+        </is>
       </c>
       <c r="C55" s="22">
         <f>B55</f>
@@ -7651,12 +7759,12 @@
       </c>
       <c r="Y55" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z55" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA55" s="6" t="inlineStr">
@@ -7679,8 +7787,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B56" s="21" t="n">
-        <v>45621</v>
+      <c r="B56" s="21" t="inlineStr">
+        <is>
+          <t>11/25/2024</t>
+        </is>
       </c>
       <c r="C56" s="22">
         <f>B56</f>
@@ -7771,12 +7881,12 @@
       </c>
       <c r="Y56" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z56" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA56" s="6" t="inlineStr">
@@ -7799,8 +7909,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B57" s="21" t="n">
-        <v>45626</v>
+      <c r="B57" s="21" t="inlineStr">
+        <is>
+          <t>11/30/2024</t>
+        </is>
       </c>
       <c r="C57" s="22">
         <f>B57</f>
@@ -7891,12 +8003,12 @@
       </c>
       <c r="Y57" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z57" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA57" s="6" t="inlineStr">
@@ -7919,8 +8031,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B58" s="21" t="n">
-        <v>45623</v>
+      <c r="B58" s="21" t="inlineStr">
+        <is>
+          <t>11/27/2024</t>
+        </is>
       </c>
       <c r="C58" s="22">
         <f>B58</f>
@@ -8011,12 +8125,12 @@
       </c>
       <c r="Y58" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z58" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA58" s="6" t="inlineStr">
@@ -8039,8 +8153,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B59" s="21" t="n">
-        <v>45632</v>
+      <c r="B59" s="21" t="inlineStr">
+        <is>
+          <t>12/6/2024</t>
+        </is>
       </c>
       <c r="C59" s="22">
         <f>B59</f>
@@ -8129,12 +8245,12 @@
       </c>
       <c r="Y59" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z59" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA59" s="6" t="inlineStr">
@@ -8157,8 +8273,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B60" s="21" t="n">
-        <v>45633</v>
+      <c r="B60" s="21" t="inlineStr">
+        <is>
+          <t>12/7/2024</t>
+        </is>
       </c>
       <c r="C60" s="22">
         <f>B60</f>
@@ -8247,12 +8365,12 @@
       </c>
       <c r="Y60" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z60" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA60" s="6" t="inlineStr">
@@ -8275,8 +8393,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B61" s="21" t="n">
-        <v>45634</v>
+      <c r="B61" s="21" t="inlineStr">
+        <is>
+          <t>12/8/2024</t>
+        </is>
       </c>
       <c r="C61" s="22">
         <f>B61</f>
@@ -8365,12 +8485,12 @@
       </c>
       <c r="Y61" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z61" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA61" s="6" t="inlineStr">
@@ -8393,8 +8513,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B62" s="21" t="n">
-        <v>45631</v>
+      <c r="B62" s="21" t="inlineStr">
+        <is>
+          <t>12/5/2024</t>
+        </is>
       </c>
       <c r="C62" s="22">
         <f>B62</f>
@@ -8483,12 +8605,12 @@
       </c>
       <c r="Y62" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z62" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA62" s="6" t="inlineStr">
@@ -8511,8 +8633,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B63" s="21" t="n">
-        <v>45633</v>
+      <c r="B63" s="21" t="inlineStr">
+        <is>
+          <t>12/7/2024</t>
+        </is>
       </c>
       <c r="C63" s="22">
         <f>B63</f>
@@ -8601,12 +8725,12 @@
       </c>
       <c r="Y63" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z63" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA63" s="6" t="inlineStr">
@@ -8629,8 +8753,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B64" s="21" t="n">
-        <v>45629</v>
+      <c r="B64" s="21" t="inlineStr">
+        <is>
+          <t>12/3/2024</t>
+        </is>
       </c>
       <c r="C64" s="22">
         <f>B64</f>
@@ -8719,12 +8845,12 @@
       </c>
       <c r="Y64" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z64" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA64" s="6" t="inlineStr">
@@ -8747,8 +8873,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B65" s="21" t="n">
-        <v>45631</v>
+      <c r="B65" s="21" t="inlineStr">
+        <is>
+          <t>12/5/2024</t>
+        </is>
       </c>
       <c r="C65" s="22">
         <f>B65</f>
@@ -8837,12 +8965,12 @@
       </c>
       <c r="Y65" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z65" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA65" s="6" t="inlineStr">
@@ -8865,8 +8993,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B66" s="21" t="n">
-        <v>45629</v>
+      <c r="B66" s="21" t="inlineStr">
+        <is>
+          <t>12/3/2024</t>
+        </is>
       </c>
       <c r="C66" s="22">
         <f>B66</f>
@@ -8955,12 +9085,12 @@
       </c>
       <c r="Y66" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z66" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA66" s="6" t="inlineStr">
@@ -8983,8 +9113,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B67" s="21" t="n">
-        <v>45634</v>
+      <c r="B67" s="21" t="inlineStr">
+        <is>
+          <t>12/8/2024</t>
+        </is>
       </c>
       <c r="C67" s="22">
         <f>B67</f>
@@ -9073,12 +9205,12 @@
       </c>
       <c r="Y67" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z67" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA67" s="6" t="inlineStr">
@@ -9101,8 +9233,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B68" s="21" t="n">
-        <v>45632</v>
+      <c r="B68" s="21" t="inlineStr">
+        <is>
+          <t>12/6/2024</t>
+        </is>
       </c>
       <c r="C68" s="22">
         <f>B68</f>
@@ -9191,12 +9325,12 @@
       </c>
       <c r="Y68" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z68" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA68" s="6" t="inlineStr">
@@ -9219,8 +9353,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B69" s="21" t="n">
-        <v>45617</v>
+      <c r="B69" s="21" t="inlineStr">
+        <is>
+          <t>11/21/2024</t>
+        </is>
       </c>
       <c r="C69" s="22">
         <f>B69</f>
@@ -9311,12 +9447,12 @@
       </c>
       <c r="Y69" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z69" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA69" s="6" t="inlineStr">
@@ -9339,8 +9475,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B70" s="21" t="n">
-        <v>45609</v>
+      <c r="B70" s="21" t="inlineStr">
+        <is>
+          <t>11/13/2024</t>
+        </is>
       </c>
       <c r="C70" s="22">
         <f>B70</f>
@@ -9431,12 +9569,12 @@
       </c>
       <c r="Y70" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z70" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA70" s="6" t="inlineStr">
@@ -9459,8 +9597,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B71" s="21" t="n">
-        <v>45615</v>
+      <c r="B71" s="21" t="inlineStr">
+        <is>
+          <t>11/19/2024</t>
+        </is>
       </c>
       <c r="C71" s="22">
         <f>B71</f>
@@ -9551,12 +9691,12 @@
       </c>
       <c r="Y71" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z71" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA71" s="6" t="inlineStr">
@@ -9579,8 +9719,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B72" s="21" t="n">
-        <v>45618</v>
+      <c r="B72" s="21" t="inlineStr">
+        <is>
+          <t>11/22/2024</t>
+        </is>
       </c>
       <c r="C72" s="22">
         <f>B72</f>
@@ -9671,12 +9813,12 @@
       </c>
       <c r="Y72" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z72" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA72" s="6" t="inlineStr">
@@ -9699,8 +9841,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B73" s="21" t="n">
-        <v>45607</v>
+      <c r="B73" s="21" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
       </c>
       <c r="C73" s="22">
         <f>B73</f>
@@ -9791,12 +9935,12 @@
       </c>
       <c r="Y73" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z73" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA73" s="6" t="inlineStr">
@@ -9819,8 +9963,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B74" s="21" t="n">
-        <v>45610</v>
+      <c r="B74" s="21" t="inlineStr">
+        <is>
+          <t>11/14/2024</t>
+        </is>
       </c>
       <c r="C74" s="22">
         <f>B74</f>
@@ -9911,12 +10057,12 @@
       </c>
       <c r="Y74" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z74" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA74" s="6" t="inlineStr">
@@ -9939,8 +10085,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B75" s="21" t="n">
-        <v>45614</v>
+      <c r="B75" s="21" t="inlineStr">
+        <is>
+          <t>11/18/2024</t>
+        </is>
       </c>
       <c r="C75" s="22">
         <f>B75</f>
@@ -10031,12 +10179,12 @@
       </c>
       <c r="Y75" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z75" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA75" s="6" t="inlineStr">
@@ -10059,8 +10207,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B76" s="21" t="n">
-        <v>45608</v>
+      <c r="B76" s="21" t="inlineStr">
+        <is>
+          <t>11/12/2024</t>
+        </is>
       </c>
       <c r="C76" s="22">
         <f>B76</f>
@@ -10151,12 +10301,12 @@
       </c>
       <c r="Y76" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z76" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA76" s="6" t="inlineStr">
@@ -10179,8 +10329,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B77" s="21" t="n">
-        <v>45612</v>
+      <c r="B77" s="21" t="inlineStr">
+        <is>
+          <t>11/16/2024</t>
+        </is>
       </c>
       <c r="C77" s="22">
         <f>B77</f>
@@ -10271,12 +10423,12 @@
       </c>
       <c r="Y77" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z77" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA77" s="6" t="inlineStr">
@@ -10299,8 +10451,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B78" s="21" t="n">
-        <v>45613</v>
+      <c r="B78" s="21" t="inlineStr">
+        <is>
+          <t>11/17/2024</t>
+        </is>
       </c>
       <c r="C78" s="22">
         <f>B78</f>
@@ -10391,12 +10545,12 @@
       </c>
       <c r="Y78" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z78" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA78" s="6" t="inlineStr">
@@ -10419,8 +10573,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B79" s="21" t="n">
-        <v>45616</v>
+      <c r="B79" s="21" t="inlineStr">
+        <is>
+          <t>11/20/2024</t>
+        </is>
       </c>
       <c r="C79" s="22">
         <f>B79</f>
@@ -10511,12 +10667,12 @@
       </c>
       <c r="Y79" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z79" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA79" s="6" t="inlineStr">
@@ -10539,8 +10695,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B80" s="21" t="n">
-        <v>45611</v>
+      <c r="B80" s="21" t="inlineStr">
+        <is>
+          <t>11/15/2024</t>
+        </is>
       </c>
       <c r="C80" s="22">
         <f>B80</f>
@@ -10631,12 +10789,12 @@
       </c>
       <c r="Y80" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z80" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA80" s="6" t="inlineStr">
@@ -10659,8 +10817,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B81" s="21" t="n">
-        <v>45619</v>
+      <c r="B81" s="21" t="inlineStr">
+        <is>
+          <t>11/23/2024</t>
+        </is>
       </c>
       <c r="C81" s="22">
         <f>B81</f>
@@ -10751,12 +10911,12 @@
       </c>
       <c r="Y81" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z81" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA81" s="6" t="inlineStr">
@@ -10779,8 +10939,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B82" s="21" t="n">
-        <v>45613</v>
+      <c r="B82" s="21" t="inlineStr">
+        <is>
+          <t>11/17/2024</t>
+        </is>
       </c>
       <c r="C82" s="22">
         <f>B82</f>
@@ -10871,12 +11033,12 @@
       </c>
       <c r="Y82" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z82" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA82" s="6" t="inlineStr">
@@ -10899,8 +11061,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B83" s="21" t="n">
-        <v>45609</v>
+      <c r="B83" s="21" t="inlineStr">
+        <is>
+          <t>11/13/2024</t>
+        </is>
       </c>
       <c r="C83" s="22">
         <f>B83</f>
@@ -10991,12 +11155,12 @@
       </c>
       <c r="Y83" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z83" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA83" s="6" t="inlineStr">
@@ -11019,8 +11183,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B84" s="21" t="n">
-        <v>45617</v>
+      <c r="B84" s="21" t="inlineStr">
+        <is>
+          <t>11/21/2024</t>
+        </is>
       </c>
       <c r="C84" s="22">
         <f>B84</f>
@@ -11111,12 +11277,12 @@
       </c>
       <c r="Y84" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z84" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA84" s="6" t="inlineStr">
@@ -11139,8 +11305,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B85" s="21" t="n">
-        <v>45615</v>
+      <c r="B85" s="21" t="inlineStr">
+        <is>
+          <t>11/19/2024</t>
+        </is>
       </c>
       <c r="C85" s="22">
         <f>B85</f>
@@ -11231,12 +11399,12 @@
       </c>
       <c r="Y85" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z85" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA85" s="6" t="inlineStr">
@@ -11259,8 +11427,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B86" s="21" t="n">
-        <v>45607</v>
+      <c r="B86" s="21" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
       </c>
       <c r="C86" s="22">
         <f>B86</f>
@@ -11351,12 +11521,12 @@
       </c>
       <c r="Y86" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z86" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA86" s="6" t="inlineStr">
@@ -11379,8 +11549,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B87" s="21" t="n">
-        <v>45612</v>
+      <c r="B87" s="21" t="inlineStr">
+        <is>
+          <t>11/16/2024</t>
+        </is>
       </c>
       <c r="C87" s="22">
         <f>B87</f>
@@ -11471,12 +11643,12 @@
       </c>
       <c r="Y87" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z87" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA87" s="6" t="inlineStr">
@@ -11499,8 +11671,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B88" s="21" t="n">
-        <v>45620</v>
+      <c r="B88" s="21" t="inlineStr">
+        <is>
+          <t>11/24/2024</t>
+        </is>
       </c>
       <c r="C88" s="22">
         <f>B88</f>
@@ -11591,12 +11765,12 @@
       </c>
       <c r="Y88" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z88" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA88" s="6" t="inlineStr">
@@ -11619,8 +11793,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B89" s="21" t="n">
-        <v>45616</v>
+      <c r="B89" s="21" t="inlineStr">
+        <is>
+          <t>11/20/2024</t>
+        </is>
       </c>
       <c r="C89" s="22">
         <f>B89</f>
@@ -11711,12 +11887,12 @@
       </c>
       <c r="Y89" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z89" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA89" s="6" t="inlineStr">
@@ -11739,8 +11915,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B90" s="21" t="n">
-        <v>45620</v>
+      <c r="B90" s="21" t="inlineStr">
+        <is>
+          <t>11/24/2024</t>
+        </is>
       </c>
       <c r="C90" s="22">
         <f>B90</f>
@@ -11831,12 +12009,12 @@
       </c>
       <c r="Y90" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z90" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA90" s="6" t="inlineStr">
@@ -11859,8 +12037,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B91" s="21" t="n">
-        <v>45618</v>
+      <c r="B91" s="21" t="inlineStr">
+        <is>
+          <t>11/22/2024</t>
+        </is>
       </c>
       <c r="C91" s="22">
         <f>B91</f>
@@ -11951,12 +12131,12 @@
       </c>
       <c r="Y91" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z91" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA91" s="6" t="inlineStr">
@@ -11979,8 +12159,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B92" s="21" t="n">
-        <v>45610</v>
+      <c r="B92" s="21" t="inlineStr">
+        <is>
+          <t>11/14/2024</t>
+        </is>
       </c>
       <c r="C92" s="22">
         <f>B92</f>
@@ -12071,12 +12253,12 @@
       </c>
       <c r="Y92" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z92" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA92" s="6" t="inlineStr">
@@ -12099,8 +12281,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B93" s="21" t="n">
-        <v>45619</v>
+      <c r="B93" s="21" t="inlineStr">
+        <is>
+          <t>11/23/2024</t>
+        </is>
       </c>
       <c r="C93" s="22">
         <f>B93</f>
@@ -12191,12 +12375,12 @@
       </c>
       <c r="Y93" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z93" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA93" s="6" t="inlineStr">
@@ -12219,8 +12403,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B94" s="21" t="n">
-        <v>45608</v>
+      <c r="B94" s="21" t="inlineStr">
+        <is>
+          <t>11/12/2024</t>
+        </is>
       </c>
       <c r="C94" s="22">
         <f>B94</f>
@@ -12311,12 +12497,12 @@
       </c>
       <c r="Y94" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z94" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA94" s="6" t="inlineStr">
@@ -12339,8 +12525,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B95" s="21" t="n">
-        <v>45614</v>
+      <c r="B95" s="21" t="inlineStr">
+        <is>
+          <t>11/18/2024</t>
+        </is>
       </c>
       <c r="C95" s="22">
         <f>B95</f>
@@ -12431,12 +12619,12 @@
       </c>
       <c r="Y95" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z95" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA95" s="6" t="inlineStr">
@@ -12459,8 +12647,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B96" s="21" t="n">
-        <v>45611</v>
+      <c r="B96" s="21" t="inlineStr">
+        <is>
+          <t>11/15/2024</t>
+        </is>
       </c>
       <c r="C96" s="22">
         <f>B96</f>
@@ -12551,12 +12741,12 @@
       </c>
       <c r="Y96" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z96" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA96" s="6" t="inlineStr">
@@ -12579,8 +12769,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B97" s="21" t="n">
-        <v>45622</v>
+      <c r="B97" s="21" t="inlineStr">
+        <is>
+          <t>11/26/2024</t>
+        </is>
       </c>
       <c r="C97" s="22">
         <f>B97</f>
@@ -12671,12 +12863,12 @@
       </c>
       <c r="Y97" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z97" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA97" s="6" t="inlineStr">
@@ -12699,8 +12891,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B98" s="21" t="n">
-        <v>45624</v>
+      <c r="B98" s="21" t="inlineStr">
+        <is>
+          <t>11/28/2024</t>
+        </is>
       </c>
       <c r="C98" s="22">
         <f>B98</f>
@@ -12791,12 +12985,12 @@
       </c>
       <c r="Y98" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z98" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA98" s="6" t="inlineStr">
@@ -12819,8 +13013,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B99" s="21" t="n">
-        <v>45625</v>
+      <c r="B99" s="21" t="inlineStr">
+        <is>
+          <t>11/29/2024</t>
+        </is>
       </c>
       <c r="C99" s="22">
         <f>B99</f>
@@ -12911,12 +13107,12 @@
       </c>
       <c r="Y99" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z99" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA99" s="6" t="inlineStr">
@@ -12939,8 +13135,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B100" s="21" t="n">
-        <v>45626</v>
+      <c r="B100" s="21" t="inlineStr">
+        <is>
+          <t>11/30/2024</t>
+        </is>
       </c>
       <c r="C100" s="22">
         <f>B100</f>
@@ -13031,12 +13229,12 @@
       </c>
       <c r="Y100" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z100" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA100" s="6" t="inlineStr">
@@ -13059,8 +13257,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B101" s="21" t="n">
-        <v>45627</v>
+      <c r="B101" s="21" t="inlineStr">
+        <is>
+          <t>12/1/2024</t>
+        </is>
       </c>
       <c r="C101" s="22">
         <f>B101</f>
@@ -13149,12 +13349,12 @@
       </c>
       <c r="Y101" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z101" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA101" s="6" t="inlineStr">
@@ -13177,8 +13377,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B102" s="21" t="n">
-        <v>45623</v>
+      <c r="B102" s="21" t="inlineStr">
+        <is>
+          <t>11/27/2024</t>
+        </is>
       </c>
       <c r="C102" s="22">
         <f>B102</f>
@@ -13269,12 +13471,12 @@
       </c>
       <c r="Y102" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z102" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA102" s="6" t="inlineStr">
@@ -13297,8 +13499,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B103" s="21" t="n">
-        <v>45625</v>
+      <c r="B103" s="21" t="inlineStr">
+        <is>
+          <t>11/29/2024</t>
+        </is>
       </c>
       <c r="C103" s="22">
         <f>B103</f>
@@ -13389,12 +13593,12 @@
       </c>
       <c r="Y103" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z103" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA103" s="6" t="inlineStr">
@@ -13417,8 +13621,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B104" s="21" t="n">
-        <v>45626</v>
+      <c r="B104" s="21" t="inlineStr">
+        <is>
+          <t>11/30/2024</t>
+        </is>
       </c>
       <c r="C104" s="22">
         <f>B104</f>
@@ -13509,12 +13715,12 @@
       </c>
       <c r="Y104" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z104" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA104" s="6" t="inlineStr">
@@ -13537,8 +13743,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B105" s="21" t="n">
-        <v>45624</v>
+      <c r="B105" s="21" t="inlineStr">
+        <is>
+          <t>11/28/2024</t>
+        </is>
       </c>
       <c r="C105" s="22">
         <f>B105</f>
@@ -13629,12 +13837,12 @@
       </c>
       <c r="Y105" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z105" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA105" s="6" t="inlineStr">
@@ -13657,8 +13865,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B106" s="21" t="n">
-        <v>45623</v>
+      <c r="B106" s="21" t="inlineStr">
+        <is>
+          <t>11/27/2024</t>
+        </is>
       </c>
       <c r="C106" s="22">
         <f>B106</f>
@@ -13749,12 +13959,12 @@
       </c>
       <c r="Y106" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z106" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA106" s="6" t="inlineStr">
@@ -13777,8 +13987,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B107" s="21" t="n">
-        <v>45622</v>
+      <c r="B107" s="21" t="inlineStr">
+        <is>
+          <t>11/26/2024</t>
+        </is>
       </c>
       <c r="C107" s="22">
         <f>B107</f>
@@ -13869,12 +14081,12 @@
       </c>
       <c r="Y107" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z107" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA107" s="6" t="inlineStr">
@@ -13897,8 +14109,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B108" s="21" t="n">
-        <v>45626</v>
+      <c r="B108" s="21" t="inlineStr">
+        <is>
+          <t>11/30/2024</t>
+        </is>
       </c>
       <c r="C108" s="22">
         <f>B108</f>
@@ -13989,12 +14203,12 @@
       </c>
       <c r="Y108" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z108" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA108" s="6" t="inlineStr">
@@ -14017,8 +14231,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B109" s="21" t="n">
-        <v>45623</v>
+      <c r="B109" s="21" t="inlineStr">
+        <is>
+          <t>11/27/2024</t>
+        </is>
       </c>
       <c r="C109" s="22">
         <f>B109</f>
@@ -14109,12 +14325,12 @@
       </c>
       <c r="Y109" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z109" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA109" s="6" t="inlineStr">
@@ -14137,8 +14353,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B110" s="21" t="n">
-        <v>45624</v>
+      <c r="B110" s="21" t="inlineStr">
+        <is>
+          <t>11/28/2024</t>
+        </is>
       </c>
       <c r="C110" s="22">
         <f>B110</f>
@@ -14229,12 +14447,12 @@
       </c>
       <c r="Y110" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z110" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA110" s="6" t="inlineStr">
@@ -14257,8 +14475,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B111" s="21" t="n">
-        <v>45622</v>
+      <c r="B111" s="21" t="inlineStr">
+        <is>
+          <t>11/26/2024</t>
+        </is>
       </c>
       <c r="C111" s="22">
         <f>B111</f>
@@ -14349,12 +14569,12 @@
       </c>
       <c r="Y111" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z111" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA111" s="6" t="inlineStr">
@@ -14377,8 +14597,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B112" s="21" t="n">
-        <v>45625</v>
+      <c r="B112" s="21" t="inlineStr">
+        <is>
+          <t>11/29/2024</t>
+        </is>
       </c>
       <c r="C112" s="22">
         <f>B112</f>
@@ -14469,12 +14691,12 @@
       </c>
       <c r="Y112" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z112" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA112" s="6" t="inlineStr">
@@ -14497,8 +14719,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B113" s="21" t="n">
-        <v>45630</v>
+      <c r="B113" s="21" t="inlineStr">
+        <is>
+          <t>12/4/2024</t>
+        </is>
       </c>
       <c r="C113" s="22">
         <f>B113</f>
@@ -14587,12 +14811,12 @@
       </c>
       <c r="Y113" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z113" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA113" s="6" t="inlineStr">
@@ -14615,8 +14839,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B114" s="21" t="n">
-        <v>45631</v>
+      <c r="B114" s="21" t="inlineStr">
+        <is>
+          <t>12/5/2024</t>
+        </is>
       </c>
       <c r="C114" s="22">
         <f>B114</f>
@@ -14705,12 +14931,12 @@
       </c>
       <c r="Y114" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z114" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA114" s="6" t="inlineStr">
@@ -14733,8 +14959,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B115" s="21" t="n">
-        <v>45630</v>
+      <c r="B115" s="21" t="inlineStr">
+        <is>
+          <t>12/4/2024</t>
+        </is>
       </c>
       <c r="C115" s="22">
         <f>B115</f>
@@ -14823,12 +15051,12 @@
       </c>
       <c r="Y115" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z115" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA115" s="6" t="inlineStr">
@@ -14851,8 +15079,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B116" s="21" t="n">
-        <v>45633</v>
+      <c r="B116" s="21" t="inlineStr">
+        <is>
+          <t>12/7/2024</t>
+        </is>
       </c>
       <c r="C116" s="22">
         <f>B116</f>
@@ -14941,12 +15171,12 @@
       </c>
       <c r="Y116" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z116" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA116" s="6" t="inlineStr">
@@ -14969,8 +15199,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B117" s="21" t="n">
-        <v>45632</v>
+      <c r="B117" s="21" t="inlineStr">
+        <is>
+          <t>12/6/2024</t>
+        </is>
       </c>
       <c r="C117" s="22">
         <f>B117</f>
@@ -15059,12 +15291,12 @@
       </c>
       <c r="Y117" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z117" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA117" s="6" t="inlineStr">
@@ -15087,8 +15319,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B118" s="21" t="n">
-        <v>45632</v>
+      <c r="B118" s="21" t="inlineStr">
+        <is>
+          <t>12/6/2024</t>
+        </is>
       </c>
       <c r="C118" s="22">
         <f>B118</f>
@@ -15177,12 +15411,12 @@
       </c>
       <c r="Y118" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z118" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA118" s="6" t="inlineStr">
@@ -15205,8 +15439,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B119" s="21" t="n">
-        <v>45631</v>
+      <c r="B119" s="21" t="inlineStr">
+        <is>
+          <t>12/5/2024</t>
+        </is>
       </c>
       <c r="C119" s="22">
         <f>B119</f>
@@ -15295,12 +15531,12 @@
       </c>
       <c r="Y119" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z119" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA119" s="6" t="inlineStr">
@@ -15323,8 +15559,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B120" s="21" t="n">
-        <v>45628</v>
+      <c r="B120" s="21" t="inlineStr">
+        <is>
+          <t>12/2/2024</t>
+        </is>
       </c>
       <c r="C120" s="22">
         <f>B120</f>
@@ -15413,12 +15651,12 @@
       </c>
       <c r="Y120" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z120" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA120" s="6" t="inlineStr">
@@ -15441,8 +15679,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B121" s="21" t="n">
-        <v>45633</v>
+      <c r="B121" s="21" t="inlineStr">
+        <is>
+          <t>12/7/2024</t>
+        </is>
       </c>
       <c r="C121" s="22">
         <f>B121</f>
@@ -15531,12 +15771,12 @@
       </c>
       <c r="Y121" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z121" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA121" s="6" t="inlineStr">
@@ -15559,8 +15799,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B122" s="21" t="n">
-        <v>45628</v>
+      <c r="B122" s="21" t="inlineStr">
+        <is>
+          <t>12/2/2024</t>
+        </is>
       </c>
       <c r="C122" s="22">
         <f>B122</f>
@@ -15649,12 +15891,12 @@
       </c>
       <c r="Y122" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z122" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA122" s="6" t="inlineStr">
@@ -15677,8 +15919,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B123" s="21" t="n">
-        <v>45637</v>
+      <c r="B123" s="21" t="inlineStr">
+        <is>
+          <t>12/11/2024</t>
+        </is>
       </c>
       <c r="C123" s="22">
         <f>B123</f>
@@ -15767,12 +16011,12 @@
       </c>
       <c r="Y123" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z123" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA123" s="6" t="inlineStr">
@@ -15795,8 +16039,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B124" s="21" t="n">
-        <v>45636</v>
+      <c r="B124" s="21" t="inlineStr">
+        <is>
+          <t>12/10/2024</t>
+        </is>
       </c>
       <c r="C124" s="22">
         <f>B124</f>
@@ -15885,12 +16131,12 @@
       </c>
       <c r="Y124" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z124" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA124" s="6" t="inlineStr">
@@ -15913,8 +16159,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B125" s="21" t="n">
-        <v>45635</v>
+      <c r="B125" s="21" t="inlineStr">
+        <is>
+          <t>12/9/2024</t>
+        </is>
       </c>
       <c r="C125" s="22">
         <f>B125</f>
@@ -16003,12 +16251,12 @@
       </c>
       <c r="Y125" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z125" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA125" s="6" t="inlineStr">
@@ -16031,8 +16279,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B126" s="21" t="n">
-        <v>45639</v>
+      <c r="B126" s="21" t="inlineStr">
+        <is>
+          <t>12/13/2024</t>
+        </is>
       </c>
       <c r="C126" s="22">
         <f>B126</f>
@@ -16121,12 +16371,12 @@
       </c>
       <c r="Y126" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z126" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA126" s="6" t="inlineStr">
@@ -16149,8 +16399,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B127" s="21" t="n">
-        <v>45641</v>
+      <c r="B127" s="21" t="inlineStr">
+        <is>
+          <t>12/15/2024</t>
+        </is>
       </c>
       <c r="C127" s="22">
         <f>B127</f>
@@ -16239,12 +16491,12 @@
       </c>
       <c r="Y127" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z127" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA127" s="6" t="inlineStr">
@@ -16267,8 +16519,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B128" s="21" t="n">
-        <v>45640</v>
+      <c r="B128" s="21" t="inlineStr">
+        <is>
+          <t>12/14/2024</t>
+        </is>
       </c>
       <c r="C128" s="22">
         <f>B128</f>
@@ -16357,12 +16611,12 @@
       </c>
       <c r="Y128" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z128" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA128" s="6" t="inlineStr">
@@ -16385,8 +16639,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B129" s="21" t="n">
-        <v>45638</v>
+      <c r="B129" s="21" t="inlineStr">
+        <is>
+          <t>12/12/2024</t>
+        </is>
       </c>
       <c r="C129" s="22">
         <f>B129</f>
@@ -16475,12 +16731,12 @@
       </c>
       <c r="Y129" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z129" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA129" s="6" t="inlineStr">
@@ -16503,8 +16759,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B130" s="21" t="n">
-        <v>45639</v>
+      <c r="B130" s="21" t="inlineStr">
+        <is>
+          <t>12/13/2024</t>
+        </is>
       </c>
       <c r="C130" s="22">
         <f>B130</f>
@@ -16593,12 +16851,12 @@
       </c>
       <c r="Y130" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z130" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA130" s="6" t="inlineStr">
@@ -16621,8 +16879,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B131" s="21" t="n">
-        <v>45639</v>
+      <c r="B131" s="21" t="inlineStr">
+        <is>
+          <t>12/13/2024</t>
+        </is>
       </c>
       <c r="C131" s="22">
         <f>B131</f>
@@ -16711,12 +16971,12 @@
       </c>
       <c r="Y131" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z131" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA131" s="6" t="inlineStr">
@@ -16739,8 +16999,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B132" s="21" t="n">
-        <v>45636</v>
+      <c r="B132" s="21" t="inlineStr">
+        <is>
+          <t>12/10/2024</t>
+        </is>
       </c>
       <c r="C132" s="22">
         <f>B132</f>
@@ -16829,12 +17091,12 @@
       </c>
       <c r="Y132" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z132" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA132" s="6" t="inlineStr">
@@ -16857,8 +17119,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B133" s="21" t="n">
-        <v>45637</v>
+      <c r="B133" s="21" t="inlineStr">
+        <is>
+          <t>12/11/2024</t>
+        </is>
       </c>
       <c r="C133" s="22">
         <f>B133</f>
@@ -16947,12 +17211,12 @@
       </c>
       <c r="Y133" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z133" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA133" s="6" t="inlineStr">
@@ -16975,8 +17239,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B134" s="21" t="n">
-        <v>45635</v>
+      <c r="B134" s="21" t="inlineStr">
+        <is>
+          <t>12/9/2024</t>
+        </is>
       </c>
       <c r="C134" s="22">
         <f>B134</f>
@@ -17065,12 +17331,12 @@
       </c>
       <c r="Y134" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z134" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA134" s="6" t="inlineStr">
@@ -17093,8 +17359,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B135" s="21" t="n">
-        <v>45635</v>
+      <c r="B135" s="21" t="inlineStr">
+        <is>
+          <t>12/9/2024</t>
+        </is>
       </c>
       <c r="C135" s="22">
         <f>B135</f>
@@ -17183,12 +17451,12 @@
       </c>
       <c r="Y135" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z135" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA135" s="6" t="inlineStr">
@@ -17211,8 +17479,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B136" s="21" t="n">
-        <v>45640</v>
+      <c r="B136" s="21" t="inlineStr">
+        <is>
+          <t>12/14/2024</t>
+        </is>
       </c>
       <c r="C136" s="22">
         <f>B136</f>
@@ -17301,12 +17571,12 @@
       </c>
       <c r="Y136" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z136" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA136" s="6" t="inlineStr">
@@ -17329,8 +17599,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B137" s="21" t="n">
-        <v>45640</v>
+      <c r="B137" s="21" t="inlineStr">
+        <is>
+          <t>12/14/2024</t>
+        </is>
       </c>
       <c r="C137" s="22">
         <f>B137</f>
@@ -17419,12 +17691,12 @@
       </c>
       <c r="Y137" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z137" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA137" s="6" t="inlineStr">
@@ -17447,8 +17719,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B138" s="21" t="n">
-        <v>45636</v>
+      <c r="B138" s="21" t="inlineStr">
+        <is>
+          <t>12/10/2024</t>
+        </is>
       </c>
       <c r="C138" s="22">
         <f>B138</f>
@@ -17537,12 +17811,12 @@
       </c>
       <c r="Y138" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z138" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA138" s="6" t="inlineStr">
@@ -17565,8 +17839,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B139" s="21" t="n">
-        <v>45638</v>
+      <c r="B139" s="21" t="inlineStr">
+        <is>
+          <t>12/12/2024</t>
+        </is>
       </c>
       <c r="C139" s="22">
         <f>B139</f>
@@ -17655,12 +17931,12 @@
       </c>
       <c r="Y139" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z139" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA139" s="6" t="inlineStr">
@@ -17683,8 +17959,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B140" s="21" t="n">
-        <v>45635</v>
+      <c r="B140" s="21" t="inlineStr">
+        <is>
+          <t>12/9/2024</t>
+        </is>
       </c>
       <c r="C140" s="22">
         <f>B140</f>
@@ -17773,12 +18051,12 @@
       </c>
       <c r="Y140" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z140" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA140" s="6" t="inlineStr">
@@ -17801,8 +18079,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B141" s="21" t="n">
-        <v>45636</v>
+      <c r="B141" s="21" t="inlineStr">
+        <is>
+          <t>12/10/2024</t>
+        </is>
       </c>
       <c r="C141" s="22">
         <f>B141</f>
@@ -17891,12 +18171,12 @@
       </c>
       <c r="Y141" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z141" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA141" s="6" t="inlineStr">
@@ -17919,8 +18199,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B142" s="21" t="n">
-        <v>45636</v>
+      <c r="B142" s="21" t="inlineStr">
+        <is>
+          <t>12/10/2024</t>
+        </is>
       </c>
       <c r="C142" s="22">
         <f>B142</f>
@@ -18009,12 +18291,12 @@
       </c>
       <c r="Y142" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z142" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA142" s="6" t="inlineStr">
@@ -18037,8 +18319,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B143" s="21" t="n">
-        <v>45641</v>
+      <c r="B143" s="21" t="inlineStr">
+        <is>
+          <t>12/15/2024</t>
+        </is>
       </c>
       <c r="C143" s="22">
         <f>B143</f>
@@ -18127,12 +18411,12 @@
       </c>
       <c r="Y143" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z143" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA143" s="6" t="inlineStr">
@@ -18155,8 +18439,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B144" s="21" t="n">
-        <v>45638</v>
+      <c r="B144" s="21" t="inlineStr">
+        <is>
+          <t>12/12/2024</t>
+        </is>
       </c>
       <c r="C144" s="22">
         <f>B144</f>
@@ -18245,12 +18531,12 @@
       </c>
       <c r="Y144" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z144" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA144" s="6" t="inlineStr">
@@ -18273,8 +18559,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B145" s="21" t="n">
-        <v>45639</v>
+      <c r="B145" s="21" t="inlineStr">
+        <is>
+          <t>12/13/2024</t>
+        </is>
       </c>
       <c r="C145" s="22">
         <f>B145</f>
@@ -18363,12 +18651,12 @@
       </c>
       <c r="Y145" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z145" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA145" s="6" t="inlineStr">
@@ -18391,8 +18679,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B146" s="21" t="n">
-        <v>45640</v>
+      <c r="B146" s="21" t="inlineStr">
+        <is>
+          <t>12/14/2024</t>
+        </is>
       </c>
       <c r="C146" s="22">
         <f>B146</f>
@@ -18481,12 +18771,12 @@
       </c>
       <c r="Y146" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z146" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA146" s="6" t="inlineStr">
@@ -18509,8 +18799,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B147" s="21" t="n">
-        <v>45641</v>
+      <c r="B147" s="21" t="inlineStr">
+        <is>
+          <t>12/15/2024</t>
+        </is>
       </c>
       <c r="C147" s="22">
         <f>B147</f>
@@ -18599,12 +18891,12 @@
       </c>
       <c r="Y147" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z147" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA147" s="6" t="inlineStr">
@@ -18627,8 +18919,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B148" s="21" t="n">
-        <v>45640</v>
+      <c r="B148" s="21" t="inlineStr">
+        <is>
+          <t>12/14/2024</t>
+        </is>
       </c>
       <c r="C148" s="22">
         <f>B148</f>
@@ -18717,12 +19011,12 @@
       </c>
       <c r="Y148" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z148" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA148" s="6" t="inlineStr">
@@ -18745,8 +19039,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B149" s="21" t="n">
-        <v>45638</v>
+      <c r="B149" s="21" t="inlineStr">
+        <is>
+          <t>12/12/2024</t>
+        </is>
       </c>
       <c r="C149" s="22">
         <f>B149</f>
@@ -18835,12 +19131,12 @@
       </c>
       <c r="Y149" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z149" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA149" s="6" t="inlineStr">
@@ -18863,8 +19159,10 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B150" s="21" t="n">
-        <v>45639</v>
+      <c r="B150" s="21" t="inlineStr">
+        <is>
+          <t>12/13/2024</t>
+        </is>
       </c>
       <c r="C150" s="22">
         <f>B150</f>
@@ -18953,12 +19251,12 @@
       </c>
       <c r="Y150" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z150" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA150" s="6" t="inlineStr">
@@ -18981,7 +19279,9 @@
           <t>opAD Media Solutions LLC:NY State Department of Health</t>
         </is>
       </c>
-      <c r="B151" s="21" t="n"/>
+      <c r="B151" s="21" t="n">
+        <v/>
+      </c>
       <c r="C151" s="22">
         <f>B151</f>
         <v/>
@@ -19065,12 +19365,12 @@
       </c>
       <c r="Y151" s="6" t="inlineStr">
         <is>
-          <t>Broadcast</t>
+          <t>Calendar</t>
         </is>
       </c>
       <c r="Z151" s="6" t="inlineStr">
         <is>
-          <t>Non-Agency</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="AA151" s="6" t="inlineStr">
